--- a/input/industry/Ind_energy_demand_2018_Trend_Restcalcul.xlsx
+++ b/input/industry/Ind_energy_demand_2018_Trend_Restcalcul.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEECB9E4-B373-48C7-8D74-30B9E02153B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF4F135-7558-4AB3-97EA-7C40AF7BCBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31125" yWindow="3525" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="overall" sheetId="12" r:id="rId1"/>
+    <sheet name="Data" sheetId="12" r:id="rId1"/>
     <sheet name="Info" sheetId="10" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="160">
   <si>
     <t>Country</t>
   </si>
@@ -549,6 +552,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -559,7 +563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +573,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -735,6 +751,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -786,6 +804,159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="steel_prim"/>
+      <sheetName val="steel_total"/>
+      <sheetName val="steel_sec"/>
+      <sheetName val="not_Fe_metals"/>
+      <sheetName val="alu_prim"/>
+      <sheetName val="alu_sec"/>
+      <sheetName val="copper_prim"/>
+      <sheetName val="copper_sec"/>
+      <sheetName val="chemicals"/>
+      <sheetName val="chlorine"/>
+      <sheetName val="ammonia_classic"/>
+      <sheetName val="methanol_classic"/>
+      <sheetName val="ethylene_classic"/>
+      <sheetName val="propylene_classic"/>
+      <sheetName val="aromate_classic"/>
+      <sheetName val="paper"/>
+      <sheetName val="not_metall"/>
+      <sheetName val="cement"/>
+      <sheetName val="glass"/>
+      <sheetName val="forecasted"/>
+      <sheetName val="forecasted_forRest"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="17">
+          <cell r="B17">
+            <v>4.1115942856168779</v>
+          </cell>
+          <cell r="C17">
+            <v>39.498741598575151</v>
+          </cell>
+          <cell r="D17">
+            <v>43.610335884192025</v>
+          </cell>
+          <cell r="H17">
+            <v>37.216000000000001</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>2.6073852727793949</v>
+          </cell>
+          <cell r="C23">
+            <v>18.05960959079621</v>
+          </cell>
+          <cell r="D23">
+            <v>20.666994863575606</v>
+          </cell>
+          <cell r="H23">
+            <v>14.246317769444444</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>2.9190831392349832</v>
+          </cell>
+          <cell r="C24">
+            <v>20.985986380294175</v>
+          </cell>
+          <cell r="D24">
+            <v>23.905069519529157</v>
+          </cell>
+          <cell r="H24">
+            <v>17.445</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15">
+        <row r="23">
+          <cell r="B23">
+            <v>24.208460742928018</v>
+          </cell>
+          <cell r="C23">
+            <v>69.428023120071984</v>
+          </cell>
+          <cell r="I23">
+            <v>93.636483862999995</v>
+          </cell>
+          <cell r="M23">
+            <v>72.52670864444444</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>23.452693448590889</v>
+          </cell>
+          <cell r="C24">
+            <v>55.143478036279937</v>
+          </cell>
+          <cell r="I24">
+            <v>78.596171484870823</v>
+          </cell>
+          <cell r="M24">
+            <v>72.106000000000009</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19">
+        <row r="17">
+          <cell r="B17">
+            <v>10.5890523258879</v>
+          </cell>
+          <cell r="C17">
+            <v>63.599192265884021</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>28.040756226227529</v>
+          </cell>
+          <cell r="C23">
+            <v>91.913150199821246</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>29.720150158416828</v>
+          </cell>
+          <cell r="C24">
+            <v>82.109265263005398</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1073,22 +1244,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C80A31-759B-46EA-9DCB-AD632C0A37A7}">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1108,1831 +1279,1735 @@
         <v>159</v>
       </c>
       <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>12.90837492312437</v>
+        <v>12.54849410508043</v>
       </c>
       <c r="C2">
-        <v>45.739726355530927</v>
+        <v>68.10305361833943</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
         <f>B2</f>
-        <v>12.90837492312437</v>
+        <v>12.54849410508043</v>
       </c>
       <c r="F2">
         <f>C2</f>
-        <v>45.739726355530927</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>68.10305361833943</v>
+      </c>
+      <c r="H2" s="2">
+        <f>(O2-E2)/O2*100</f>
+        <v>67.917085486094209</v>
+      </c>
+      <c r="I2" s="2">
+        <f>(P2-F2)/P2*100</f>
+        <v>20.375092474057411</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2">
-        <f>P2</f>
+      <c r="L2">
         <v>39.112699999999997</v>
       </c>
-      <c r="J2">
-        <f>R2</f>
+      <c r="M2">
         <v>85.529837000000001</v>
       </c>
-      <c r="L2" s="2">
-        <f>(I2-E2)/I2*100</f>
-        <v>66.996973046799695</v>
-      </c>
-      <c r="M2" s="2">
-        <f>(J2-F2)/J2*100</f>
-        <v>46.521906319626297</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="O2">
+        <f>L2</f>
+        <v>39.112699999999997</v>
+      </c>
       <c r="P2">
-        <v>39.112699999999997</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2">
+        <f>M2</f>
         <v>85.529837000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3.6538260563541538</v>
+        <v>2.289831634556502</v>
       </c>
       <c r="C3">
-        <v>6.9311716122999982</v>
+        <v>7.8748656834447246</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E35" si="0">B3</f>
-        <v>3.6538260563541538</v>
+        <v>2.289831634556502</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F35" si="1">C3</f>
-        <v>6.9311716122999982</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>7.8748656834447246</v>
+      </c>
+      <c r="H3" s="2">
+        <f>(O3-E3)/O3*100</f>
+        <v>76.803971912341112</v>
+      </c>
+      <c r="I3" s="2">
+        <f>(P3-F3)/P3*100</f>
+        <v>64.017045274984028</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I35" si="2">P3</f>
+      <c r="L3">
         <v>9.8716540000000013</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J35" si="3">R3</f>
+      <c r="M3">
         <v>21.884989000000001</v>
       </c>
-      <c r="L3" s="2">
-        <f>(I3-E3)/I3*100</f>
-        <v>62.986688387233244</v>
-      </c>
-      <c r="M3" s="2">
-        <f>(J3-F3)/J3*100</f>
-        <v>68.329106254976878</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="O3">
+        <f>L3</f>
+        <v>9.8716540000000013</v>
+      </c>
       <c r="P3">
-        <v>9.8716540000000013</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3">
+        <f>M3</f>
         <v>21.884989000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.092156718862439</v>
+        <v>5.787726580788477</v>
       </c>
       <c r="C4">
-        <v>22.864229610845491</v>
+        <v>38.703699200451389</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>5.092156718862439</v>
+        <v>5.787726580788477</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>22.864229610845491</v>
-      </c>
-      <c r="H4" s="1" t="s">
+        <v>38.703699200451389</v>
+      </c>
+      <c r="H4" s="2">
+        <f>(O4-E4)/O4*100</f>
+        <v>76.184098452755435</v>
+      </c>
+      <c r="I4" s="2">
+        <f>(P4-F4)/P4*100</f>
+        <v>27.834314322206101</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
+      <c r="L4">
         <v>24.301942</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
+      <c r="M4">
         <v>53.631721000000006</v>
       </c>
-      <c r="L4" s="2">
-        <f>(I4-E4)/I4*100</f>
-        <v>79.046297127766834</v>
-      </c>
-      <c r="M4" s="2">
-        <f>(J4-F4)/J4*100</f>
-        <v>57.368085184427528</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="O4">
+        <f>L4</f>
+        <v>24.301942</v>
+      </c>
       <c r="P4">
-        <v>24.301942</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4">
+        <f>M4</f>
         <v>53.631721000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.000675577634847</v>
+        <v>1.5939085590677839</v>
       </c>
       <c r="C5">
-        <v>2.869006714707806</v>
+        <v>3.6776015570810778</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.000675577634847</v>
+        <v>1.5939085590677839</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2.869006714707806</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>3.6776015570810778</v>
+      </c>
+      <c r="H5" s="2">
+        <f>(O5-E5)/O5*100</f>
+        <v>81.408793246365079</v>
+      </c>
+      <c r="I5" s="2">
+        <f>(P5-F5)/P5*100</f>
+        <v>80.295127401779069</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
+      <c r="L5">
         <v>8.5734539999999999</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
+      <c r="M5">
         <v>18.663412000000005</v>
       </c>
-      <c r="L5" s="2">
-        <f>(I5-E5)/I5*100</f>
-        <v>88.328209638322591</v>
-      </c>
-      <c r="M5" s="2">
-        <f>(J5-F5)/J5*100</f>
-        <v>84.62764089059489</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="O5">
+        <f>L5</f>
+        <v>8.5734539999999999</v>
+      </c>
       <c r="P5">
-        <v>8.5734539999999999</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5">
+        <f>M5</f>
         <v>18.663412000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>78.084904752263768</v>
+        <v>80.101526922622696</v>
       </c>
       <c r="C6">
-        <v>208.2955536088356</v>
+        <v>319.88056440244321</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>78.084904752263768</v>
+        <v>80.101526922622696</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>208.2955536088356</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>319.88056440244321</v>
+      </c>
+      <c r="H6" s="2">
+        <f>(O6-E6)/O6*100</f>
+        <v>65.252865424604195</v>
+      </c>
+      <c r="I6" s="2">
+        <f>(P6-F6)/P6*100</f>
+        <v>26.198495817706451</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
+      <c r="L6">
         <v>230.52699999999999</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
+      <c r="M6">
         <v>433.43366500000002</v>
       </c>
-      <c r="L6" s="2">
-        <f>(I6-E6)/I6*100</f>
-        <v>66.127653267398728</v>
-      </c>
-      <c r="M6" s="2">
-        <f>(J6-F6)/J6*100</f>
-        <v>51.942922198063322</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="O6">
+        <f>L6</f>
+        <v>230.52699999999999</v>
+      </c>
       <c r="P6">
-        <v>230.52699999999999</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6">
+        <f>M6</f>
         <v>433.43366500000002</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.62950314165865151</v>
+        <v>0.84946346375347714</v>
       </c>
       <c r="C7">
-        <v>2.665625512822241</v>
+        <v>3.142083205041502</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.62950314165865151</v>
+        <v>0.84946346375347714</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>2.665625512822241</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>3.142083205041502</v>
+      </c>
+      <c r="H7" s="2">
+        <f>(O7-E7)/O7*100</f>
+        <v>88.249758985157712</v>
+      </c>
+      <c r="I7" s="2">
+        <f>(P7-F7)/P7*100</f>
+        <v>83.788373160708844</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
+      <c r="L7">
         <v>7.2293280000000006</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
+      <c r="M7">
         <v>19.381664999999998</v>
       </c>
-      <c r="L7" s="2">
-        <f>(I7-E7)/I7*100</f>
-        <v>91.292369890276774</v>
-      </c>
-      <c r="M7" s="2">
-        <f>(J7-F7)/J7*100</f>
-        <v>86.246663984635774</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="O7">
+        <f>L7</f>
+        <v>7.2293280000000006</v>
+      </c>
       <c r="P7">
-        <v>7.2293280000000006</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7">
+        <f>M7</f>
         <v>19.381664999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.1846582055250519</v>
+        <v>5.2430137009042586</v>
       </c>
       <c r="C8">
-        <v>13.975032867088959</v>
+        <v>12.51497567171079</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>6.1846582055250519</v>
+        <v>5.2430137009042586</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>13.975032867088959</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>12.51497567171079</v>
+      </c>
+      <c r="H8" s="2">
+        <f>(O8-E8)/O8*100</f>
+        <v>57.763614605838335</v>
+      </c>
+      <c r="I8" s="2">
+        <f>(P8-F8)/P8*100</f>
+        <v>35.79290999610248</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
+      <c r="L8">
         <v>12.413500000000001</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
+      <c r="M8">
         <v>19.491579000000002</v>
       </c>
-      <c r="L8" s="2">
-        <f>(I8-E8)/I8*100</f>
-        <v>50.177965879687022</v>
-      </c>
-      <c r="M8" s="2">
-        <f>(J8-F8)/J8*100</f>
-        <v>28.302202366011709</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="O8">
+        <f>L8</f>
+        <v>12.413500000000001</v>
+      </c>
       <c r="P8">
-        <v>12.413500000000001</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8">
+        <f>M8</f>
         <v>19.491579000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>34.975296006181843</v>
+        <v>28.214463478519541</v>
       </c>
       <c r="C9">
-        <v>73.031702998443791</v>
+        <v>84.082611212691049</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>34.975296006181843</v>
+        <v>28.214463478519541</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>73.031702998443791</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>84.082611212691049</v>
+      </c>
+      <c r="H9" s="2">
+        <f>(O9-E9)/O9*100</f>
+        <v>64.130660854422842</v>
+      </c>
+      <c r="I9" s="2">
+        <f>(P9-F9)/P9*100</f>
+        <v>46.269129182235893</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
+      <c r="L9">
         <v>78.659000000000006</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
+      <c r="M9">
         <v>156.48845800000001</v>
       </c>
-      <c r="L9" s="2">
-        <f>(I9-E9)/I9*100</f>
-        <v>55.535544557924922</v>
-      </c>
-      <c r="M9" s="2">
-        <f>(J9-F9)/J9*100</f>
-        <v>53.330933199914476</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="O9">
+        <f>L9</f>
+        <v>78.659000000000006</v>
+      </c>
       <c r="P9">
-        <v>78.659000000000006</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9">
+        <f>M9</f>
         <v>156.48845800000001</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>38.331775685783043</v>
+        <v>33.543146831610038</v>
       </c>
       <c r="C10">
-        <v>81.856398071111968</v>
+        <v>116.5905031042068</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>38.331775685783043</v>
+        <v>33.543146831610038</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>81.856398071111968</v>
-      </c>
-      <c r="H10" s="1" t="s">
+        <v>116.5905031042068</v>
+      </c>
+      <c r="H10" s="2">
+        <f>(O10-E10)/O10*100</f>
+        <v>71.311884648597612</v>
+      </c>
+      <c r="I10" s="2">
+        <f>(P10-F10)/P10*100</f>
+        <v>44.802064673101341</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
+      <c r="L10">
         <v>116.92349400000001</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
+      <c r="M10">
         <v>211.22258000000002</v>
       </c>
-      <c r="L10" s="2">
-        <f>(I10-E10)/I10*100</f>
-        <v>67.216361421954218</v>
-      </c>
-      <c r="M10" s="2">
-        <f>(J10-F10)/J10*100</f>
-        <v>61.246379022966224</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="O10">
+        <f>L10</f>
+        <v>116.92349400000001</v>
+      </c>
       <c r="P10">
-        <v>116.92349400000001</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10">
+        <f>M10</f>
         <v>211.22258000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.6463487702217141</v>
+        <v>1.031217495427224</v>
       </c>
       <c r="C11">
-        <v>5.3750368241969948</v>
+        <v>4.9049816152214714</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1.6463487702217141</v>
+        <v>1.031217495427224</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>5.3750368241969948</v>
-      </c>
-      <c r="H11" s="1" t="s">
+        <v>4.9049816152214714</v>
+      </c>
+      <c r="H11" s="2">
+        <f>(O11-E11)/O11*100</f>
+        <v>72.000611039173933</v>
+      </c>
+      <c r="I11" s="2">
+        <f>(P11-F11)/P11*100</f>
+        <v>50.098616742495985</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
+      <c r="L11">
         <v>3.6829999999999998</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
+      <c r="M11">
         <v>9.8293499999999998</v>
       </c>
-      <c r="L11" s="2">
-        <f>(I11-E11)/I11*100</f>
-        <v>55.298702953523915</v>
-      </c>
-      <c r="M11" s="2">
-        <f>(J11-F11)/J11*100</f>
-        <v>45.316457098414489</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="O11">
+        <f>L11</f>
+        <v>3.6829999999999998</v>
+      </c>
       <c r="P11">
-        <v>3.6829999999999998</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11">
+        <f>M11</f>
         <v>9.8293499999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>37.877087842796684</v>
+        <v>35.034040584450857</v>
       </c>
       <c r="C12">
-        <v>90.699562833435806</v>
+        <v>122.0573391861397</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>37.877087842796684</v>
+        <v>35.034040584450857</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>90.699562833435806</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>122.0573391861397</v>
+      </c>
+      <c r="H12" s="2">
+        <f>(O12-E12)/O12*100</f>
+        <v>69.816491750060976</v>
+      </c>
+      <c r="I12" s="2">
+        <f>(P12-F12)/P12*100</f>
+        <v>26.720864999054093</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
+      <c r="L12">
         <v>116.07014100000001</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
+      <c r="M12">
         <v>166.56492900000001</v>
       </c>
-      <c r="L12" s="2">
-        <f>(I12-E12)/I12*100</f>
-        <v>67.367070017777721</v>
-      </c>
-      <c r="M12" s="2">
-        <f>(J12-F12)/J12*100</f>
-        <v>45.547022786870215</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="O12">
+        <f>L12</f>
+        <v>116.07014100000001</v>
+      </c>
       <c r="P12">
-        <v>116.07014100000001</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R12">
+        <f>M12</f>
         <v>166.56492900000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.30022463649215447</v>
+        <v>0.54930137284220637</v>
       </c>
       <c r="C13">
-        <v>0.80009780264484631</v>
+        <v>1.457477962865632</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.30022463649215447</v>
+        <v>0.54930137284220637</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.80009780264484631</v>
-      </c>
-      <c r="H13" s="1" t="s">
+        <v>1.457477962865632</v>
+      </c>
+      <c r="H13" s="2">
+        <f>(O13-E13)/O13*100</f>
+        <v>85.096416614423148</v>
+      </c>
+      <c r="I13" s="2">
+        <f>(P13-F13)/P13*100</f>
+        <v>84.130098326654107</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
+      <c r="L13">
         <v>3.6856999999999998</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
+      <c r="M13">
         <v>9.1839130000000004</v>
       </c>
-      <c r="L13" s="2">
-        <f>(I13-E13)/I13*100</f>
-        <v>91.854338755401827</v>
-      </c>
-      <c r="M13" s="2">
-        <f>(J13-F13)/J13*100</f>
-        <v>91.288051153741918</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="O13">
+        <f>L13</f>
+        <v>3.6856999999999998</v>
+      </c>
       <c r="P13">
-        <v>3.6856999999999998</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13">
+        <f>M13</f>
         <v>9.1839130000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1.7588045511521671</v>
+        <v>2.563703189856168</v>
       </c>
       <c r="C14">
-        <v>2.139882195381233</v>
+        <v>3.6874285379610661</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1.7588045511521671</v>
+        <v>2.563703189856168</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>2.139882195381233</v>
-      </c>
-      <c r="H14" s="1" t="s">
+        <v>3.6874285379610661</v>
+      </c>
+      <c r="H14" s="2">
+        <f>(O14-E14)/O14*100</f>
+        <v>16.954373718258477</v>
+      </c>
+      <c r="I14" s="2">
+        <f>(P14-F14)/P14*100</f>
+        <v>13.72551247544922</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
+      <c r="L14">
         <v>3.0871019999999998</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
+      <c r="M14">
         <v>4.2740659999999995</v>
       </c>
-      <c r="L14" s="2">
-        <f>(I14-E14)/I14*100</f>
-        <v>43.027326238259469</v>
-      </c>
-      <c r="M14" s="2">
-        <f>(J14-F14)/J14*100</f>
-        <v>49.933337590452901</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="O14">
+        <f>L14</f>
+        <v>3.0871019999999998</v>
+      </c>
       <c r="P14">
-        <v>3.0871019999999998</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R14">
+        <f>M14</f>
         <v>4.2740659999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>3.1682540349081338</v>
+        <v>3.2782260668192391</v>
       </c>
       <c r="C15">
-        <v>12.818164424509281</v>
+        <v>17.256067634106461</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>3.1682540349081338</v>
+        <v>3.2782260668192391</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>12.818164424509281</v>
-      </c>
-      <c r="H15" s="1" t="s">
+        <v>17.256067634106461</v>
+      </c>
+      <c r="H15" s="2">
+        <f>(O15-E15)/O15*100</f>
+        <v>80.9781474595611</v>
+      </c>
+      <c r="I15" s="2">
+        <f>(P15-F15)/P15*100</f>
+        <v>49.836120241132022</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
+      <c r="L15">
         <v>17.234000000000002</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
+      <c r="M15">
         <v>34.399388000000002</v>
       </c>
-      <c r="L15" s="2">
-        <f>(I15-E15)/I15*100</f>
-        <v>81.616258356109242</v>
-      </c>
-      <c r="M15" s="2">
-        <f>(J15-F15)/J15*100</f>
-        <v>62.737231184144093</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="O15">
+        <f>L15</f>
+        <v>17.234000000000002</v>
+      </c>
       <c r="P15">
-        <v>17.234000000000002</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15">
+        <f>M15</f>
         <v>34.399388000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>12.47860785772861</v>
+        <v>14.58885616767977</v>
       </c>
       <c r="C16">
-        <v>53.570847651858223</v>
+        <v>83.770113903796641</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>12.47860785772861</v>
+        <v>14.58885616767977</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>53.570847651858223</v>
-      </c>
-      <c r="H16" s="1" t="s">
+        <v>83.770113903796641</v>
+      </c>
+      <c r="H16" s="2">
+        <f>(O16-E16)/O16*100</f>
+        <v>59.375790099998326</v>
+      </c>
+      <c r="I16" s="2">
+        <f>(P16-F16)/P16*100</f>
+        <v>31.665872573742771</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
+      <c r="L16">
         <v>35.911729000000001</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
+      <c r="M16">
         <v>122.58898600000001</v>
       </c>
-      <c r="L16" s="2">
-        <f>(I16-E16)/I16*100</f>
-        <v>65.251999262612472</v>
-      </c>
-      <c r="M16" s="2">
-        <f>(J16-F16)/J16*100</f>
-        <v>56.30043986834329</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="O16">
+        <f>L16</f>
+        <v>35.911729000000001</v>
+      </c>
       <c r="P16">
-        <v>35.911729000000001</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R16">
+        <f>M16</f>
         <v>122.58898600000001</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>9.8487955827649305</v>
-      </c>
-      <c r="C17">
-        <v>29.258298846687289</v>
+      <c r="B17" s="19">
+        <f>[1]forecasted!B17-[1]steel_total!B17+[1]steel_total!B17*[1]steel_total!H17/[1]steel_total!D17</f>
+        <v>9.9861926058533008</v>
+      </c>
+      <c r="C17" s="19">
+        <f>[1]forecasted!C17-[1]steel_total!C17+[1]steel_total!C17*[1]steel_total!H17/[1]steel_total!D17</f>
+        <v>57.807716101726598</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>9.8487955827649305</v>
+        <v>9.9861926058533008</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>29.258298846687289</v>
-      </c>
-      <c r="H17" s="1" t="s">
+        <v>57.807716101726598</v>
+      </c>
+      <c r="H17" s="2">
+        <f>(O17-E17)/O17*100</f>
+        <v>64.907116855278318</v>
+      </c>
+      <c r="I17" s="2">
+        <f>(P17-F17)/P17*100</f>
+        <v>2.4877221747959362</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
+      <c r="L17">
         <v>28.456461000000001</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
+      <c r="M17">
         <v>59.282499999999999</v>
       </c>
-      <c r="L17" s="2">
-        <f>(I17-E17)/I17*100</f>
-        <v>65.389949288616975</v>
-      </c>
-      <c r="M17" s="2">
-        <f>(J17-F17)/J17*100</f>
-        <v>50.645976727217487</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="O17">
+        <f>L17</f>
+        <v>28.456461000000001</v>
+      </c>
       <c r="P17">
-        <v>28.456461000000001</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R17">
+        <f>M17</f>
         <v>59.282499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>15.591053003971099</v>
+        <v>12.618028211912399</v>
       </c>
       <c r="C18">
-        <v>45.322124875099142</v>
+        <v>50.775324341706778</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>15.591053003971099</v>
+        <v>12.618028211912399</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>45.322124875099142</v>
-      </c>
-      <c r="H18" s="1" t="s">
+        <v>50.775324341706778</v>
+      </c>
+      <c r="H18" s="2">
+        <f>(O18-E18)/O18*100</f>
+        <v>77.637163321959534</v>
+      </c>
+      <c r="I18" s="2">
+        <f>(P18-F18)/P18*100</f>
+        <v>62.077445478875582</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
+      <c r="L18">
         <v>56.424095000000001</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
+      <c r="M18">
         <v>133.89215200000001</v>
       </c>
-      <c r="L18" s="2">
-        <f>(I18-E18)/I18*100</f>
-        <v>72.368093801112636</v>
-      </c>
-      <c r="M18" s="2">
-        <f>(J18-F18)/J18*100</f>
-        <v>66.150275278943056</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="O18">
+        <f>L18</f>
+        <v>56.424095000000001</v>
+      </c>
       <c r="P18">
-        <v>56.424095000000001</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R18">
+        <f>M18</f>
         <v>133.89215200000001</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.1818997584049367</v>
+        <v>5.726455760783681</v>
       </c>
       <c r="C19">
-        <v>23.511352730014831</v>
+        <v>22.93888454008907</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>6.1818997584049367</v>
+        <v>5.726455760783681</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>23.511352730014831</v>
-      </c>
-      <c r="H19" s="1" t="s">
+        <v>22.93888454008907</v>
+      </c>
+      <c r="H19" s="2">
+        <f>(O19-E19)/O19*100</f>
+        <v>65.075981074080715</v>
+      </c>
+      <c r="I19" s="2">
+        <f>(P19-F19)/P19*100</f>
+        <v>37.265415421629804</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
+      <c r="L19">
         <v>16.396898</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
+      <c r="M19">
         <v>36.564973999999999</v>
       </c>
-      <c r="L19" s="2">
-        <f>(I19-E19)/I19*100</f>
-        <v>62.298358150395657</v>
-      </c>
-      <c r="M19" s="2">
-        <f>(J19-F19)/J19*100</f>
-        <v>35.699796395274802</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="O19">
+        <f>L19</f>
+        <v>16.396898</v>
+      </c>
       <c r="P19">
-        <v>16.396898</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19">
+        <f>M19</f>
         <v>36.564973999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>12.56786693123342</v>
+        <v>7.1824997223361331</v>
       </c>
       <c r="C20">
-        <v>25.35478417195829</v>
+        <v>17.038231003890001</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>12.56786693123342</v>
+        <v>7.1824997223361331</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>25.35478417195829</v>
-      </c>
-      <c r="H20" s="1" t="s">
+        <v>17.038231003890001</v>
+      </c>
+      <c r="H20" s="2">
+        <f>(O20-E20)/O20*100</f>
+        <v>67.682559698239757</v>
+      </c>
+      <c r="I20" s="2">
+        <f>(P20-F20)/P20*100</f>
+        <v>68.838824849538895</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
+      <c r="L20">
         <v>22.224841000000001</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
+      <c r="M20">
         <v>54.677755000000005</v>
       </c>
-      <c r="L20" s="2">
-        <f>(I20-E20)/I20*100</f>
-        <v>43.451262795385489</v>
-      </c>
-      <c r="M20" s="2">
-        <f>(J20-F20)/J20*100</f>
-        <v>53.628702985412822</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="O20">
+        <f>L20</f>
+        <v>22.224841000000001</v>
+      </c>
       <c r="P20">
-        <v>22.224841000000001</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R20">
+        <f>M20</f>
         <v>54.677755000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
-        <v>2.6363883737920091</v>
+        <v>2.4637671005487709</v>
       </c>
       <c r="C21">
-        <v>3.7221738952448722</v>
+        <v>3.4269769602172411</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>2.6363883737920091</v>
+        <v>2.4637671005487709</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>3.7221738952448722</v>
-      </c>
-      <c r="H21" s="1" t="s">
+        <v>3.4269769602172411</v>
+      </c>
+      <c r="H21" s="2">
+        <f>(O21-E21)/O21*100</f>
+        <v>63.834122962852923</v>
+      </c>
+      <c r="I21" s="2">
+        <f>(P21-F21)/P21*100</f>
+        <v>63.036193599563973</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
+      <c r="L21">
         <v>6.8124080000000005</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="3"/>
+      <c r="M21">
         <v>9.2711689999999987</v>
       </c>
-      <c r="L21" s="2">
-        <f>(I21-E21)/I21*100</f>
-        <v>61.300198493807059</v>
-      </c>
-      <c r="M21" s="2">
-        <f>(J21-F21)/J21*100</f>
-        <v>59.852162168062385</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="O21">
+        <f>L21</f>
+        <v>6.8124080000000005</v>
+      </c>
       <c r="P21">
-        <v>6.8124080000000005</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R21">
+        <f>M21</f>
         <v>9.2711689999999987</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>8.0159648089857747</v>
-      </c>
-      <c r="C22">
-        <v>20.339645775484481</v>
+        <v>6.6600401363078969</v>
+      </c>
+      <c r="C22" s="20">
+        <v>30.5628059818076</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>8.0159648089857747</v>
+        <v>6.6600401363078969</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>20.339645775484481</v>
-      </c>
-      <c r="H22" s="1" t="s">
+        <v>30.5628059818076</v>
+      </c>
+      <c r="H22" s="2">
+        <f>(O22-E22)/O22*100</f>
+        <v>47.944035201595305</v>
+      </c>
+      <c r="I22" s="2">
+        <f>MAX((P22-F22)/P22*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
+      <c r="L22">
         <v>12.794</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
+      <c r="M22">
         <v>29.801330999999998</v>
       </c>
-      <c r="L22" s="2">
-        <f>(I22-E22)/I22*100</f>
-        <v>37.345905823153238</v>
-      </c>
-      <c r="M22" s="2">
-        <f>(J22-F22)/J22*100</f>
-        <v>31.749203498714596</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="O22">
+        <f>L22</f>
+        <v>12.794</v>
+      </c>
       <c r="P22">
-        <v>12.794</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R22">
+        <f>M22</f>
         <v>29.801330999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
-        <v>30.08486075167535</v>
-      </c>
-      <c r="C23">
-        <v>74.931948188470685</v>
+      <c r="B23" s="19">
+        <f>[1]forecasted!B23-[1]steel_total!B23+[1]steel_total!B23*[1]steel_total!H23/[1]steel_total!D23-[1]paper!B23+[1]paper!B23*[1]paper!M23/[1]paper!I23</f>
+        <v>21.773061955808565</v>
+      </c>
+      <c r="C23" s="19">
+        <f>[1]forecasted!C23-[1]steel_total!C23+[1]steel_total!C23*[1]steel_total!H23/[1]steel_total!D23-[1]paper!C23+[1]paper!C23*[1]paper!M23/[1]paper!I23</f>
+        <v>70.650392157553483</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>30.08486075167535</v>
+        <v>21.773061955808565</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>74.931948188470685</v>
-      </c>
-      <c r="H23" s="1" t="s">
+        <v>70.650392157553483</v>
+      </c>
+      <c r="H23" s="2">
+        <f>(O23-E23)/O23*100</f>
+        <v>44.860176878951144</v>
+      </c>
+      <c r="I23" s="2">
+        <f>(P23-F23)/P23*100</f>
+        <v>21.521346455668766</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
+      <c r="L23">
         <v>39.487000000000002</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
+      <c r="M23">
         <v>90.024979999999999</v>
       </c>
-      <c r="L23" s="2">
-        <f>(I23-E23)/I23*100</f>
-        <v>23.810720612669108</v>
-      </c>
-      <c r="M23" s="2">
-        <f>(J23-F23)/J23*100</f>
-        <v>16.765382021222681</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="O23">
+        <f>L23</f>
+        <v>39.487000000000002</v>
+      </c>
       <c r="P23">
-        <v>39.487000000000002</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R23">
+        <f>M23</f>
         <v>90.024979999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
-        <v>29.54246751841103</v>
-      </c>
-      <c r="C24">
-        <v>62.60620098071842</v>
+      <c r="B24" s="19">
+        <f>[1]forecasted!B24-[1]steel_total!B24+[1]steel_total!B24*[1]steel_total!H24/[1]steel_total!D24-[1]paper!B24+[1]paper!B24*[1]paper!M24/[1]paper!I24</f>
+        <v>26.994667783766982</v>
+      </c>
+      <c r="C24" s="19">
+        <f>[1]forecasted!C24-[1]steel_total!C24+[1]steel_total!C24*[1]steel_total!H24/[1]steel_total!D24-[1]paper!C24+[1]paper!C24*[1]paper!M24/[1]paper!I24</f>
+        <v>71.884506633255256</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>29.54246751841103</v>
+        <v>26.994667783766982</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>62.60620098071842</v>
-      </c>
-      <c r="H24" s="1" t="s">
+        <v>71.884506633255256</v>
+      </c>
+      <c r="H24" s="2">
+        <f>(O24-E24)/O24*100</f>
+        <v>46.776025190230527</v>
+      </c>
+      <c r="I24" s="2">
+        <f>(P24-F24)/P24*100</f>
+        <v>7.1002521573053325</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
+      <c r="L24">
         <v>50.719000000000001</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
+      <c r="M24">
         <v>77.378581000000011</v>
       </c>
-      <c r="L24" s="2">
-        <f>(I24-E24)/I24*100</f>
-        <v>41.752661688103018</v>
-      </c>
-      <c r="M24" s="2">
-        <f>(J24-F24)/J24*100</f>
-        <v>19.091045387975761</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="O24">
+        <f>L24</f>
+        <v>50.719000000000001</v>
+      </c>
       <c r="P24">
-        <v>50.719000000000001</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R24">
+        <f>M24</f>
         <v>77.378581000000011</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25">
-        <v>28.279568660913782</v>
+        <v>31.829992173211739</v>
       </c>
       <c r="C25">
-        <v>36.857282543036852</v>
+        <v>76.3264879729348</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>28.279568660913782</v>
+        <v>31.829992173211739</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>36.857282543036852</v>
-      </c>
-      <c r="H25" s="1" t="s">
+        <v>76.3264879729348</v>
+      </c>
+      <c r="H25" s="2">
+        <f>(O25-E25)/O25*100</f>
+        <v>65.824004841362424</v>
+      </c>
+      <c r="I25" s="2">
+        <f>(P25-F25)/P25*100</f>
+        <v>51.079165536541169</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
+      <c r="L25">
         <v>93.135524000000004</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
+      <c r="M25">
         <v>156.02041299999999</v>
       </c>
-      <c r="L25" s="2">
-        <f>(I25-E25)/I25*100</f>
-        <v>69.636109352953468</v>
-      </c>
-      <c r="M25" s="2">
-        <f>(J25-F25)/J25*100</f>
-        <v>76.376628010184248</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="O25">
+        <f>L25</f>
+        <v>93.135524000000004</v>
+      </c>
       <c r="P25">
-        <v>93.135524000000004</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R25">
+        <f>M25</f>
         <v>156.02041299999999</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
-        <v>31.387522348216979</v>
+        <v>30.9095073310936</v>
       </c>
       <c r="C26">
-        <v>10.842053997984349</v>
+        <v>10.16388295290729</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>31.387522348216979</v>
+        <v>30.9095073310936</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>10.842053997984349</v>
-      </c>
-      <c r="H26" s="1" t="s">
+        <v>10.16388295290729</v>
+      </c>
+      <c r="H26" s="2">
+        <f>(O26-E26)/O26*100</f>
+        <v>34.2411322059952</v>
+      </c>
+      <c r="I26" s="2">
+        <f>(P26-F26)/P26*100</f>
+        <v>58.52180120741437</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
+      <c r="L26">
         <v>47.004317999999998</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
+      <c r="M26">
         <v>24.504157000000006</v>
       </c>
-      <c r="L26" s="2">
-        <f>(I26-E26)/I26*100</f>
-        <v>33.224172408549826</v>
-      </c>
-      <c r="M26" s="2">
-        <f>(J26-F26)/J26*100</f>
-        <v>55.754225709603702</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="O26">
+        <f>L26</f>
+        <v>47.004317999999998</v>
+      </c>
       <c r="P26">
-        <v>47.004317999999998</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R26">
+        <f>M26</f>
         <v>24.504157000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27">
-        <v>3.003282258351041</v>
+        <v>3.2572521623829371</v>
       </c>
       <c r="C27">
-        <v>14.643619374189271</v>
+        <v>8.9400758318216909</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>3.003282258351041</v>
+        <v>3.2572521623829371</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>14.643619374189271</v>
-      </c>
-      <c r="H27" s="1" t="s">
+        <v>8.9400758318216909</v>
+      </c>
+      <c r="H27" s="2">
+        <f>(O27-E27)/O27*100</f>
+        <v>81.184037572884193</v>
+      </c>
+      <c r="I27" s="2">
+        <f>(P27-F27)/P27*100</f>
+        <v>60.944260133293582</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="2"/>
-        <v>17.31111111111111</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>22.890555555555554</v>
-      </c>
-      <c r="L27" s="2">
-        <f>(I27-E27)/I27*100</f>
-        <v>82.651129444698739</v>
-      </c>
-      <c r="M27" s="2">
-        <f>(J27-F27)/J27*100</f>
-        <v>36.027680330217002</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27">
+      <c r="L27">
         <f>62320/3600</f>
         <v>17.31111111111111</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27">
+      <c r="M27">
         <f>(144726-62320)/3600</f>
         <v>22.890555555555554</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27">
+        <f>L27</f>
+        <v>17.31111111111111</v>
+      </c>
+      <c r="P27">
+        <f>M27</f>
+        <v>22.890555555555554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
-        <v>1.095852356907379</v>
+      <c r="B28" s="20">
+        <v>1.1897537981384629</v>
       </c>
       <c r="C28">
-        <v>0.14311202180841789</v>
+        <v>0.13077900746783369</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>1.095852356907379</v>
+        <v>1.1897537981384629</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>0.14311202180841789</v>
-      </c>
-      <c r="H28" s="1" t="s">
+        <v>0.13077900746783369</v>
+      </c>
+      <c r="H28" s="2">
+        <f>MAX((O28-E28)/O28*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <f>(P28-F28)/P28*100</f>
+        <v>84.414613113152384</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
+      <c r="L28">
         <v>0.73739999999999994</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="3"/>
+      <c r="M28">
         <v>0.839113</v>
       </c>
-      <c r="L28" s="2">
-        <f>(I28-E28)/I28*100</f>
-        <v>-48.61030063837525</v>
-      </c>
-      <c r="M28" s="2">
-        <f>(J28-F28)/J28*100</f>
-        <v>82.944845115208807</v>
-      </c>
-      <c r="O28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O28">
+        <f>L28</f>
+        <v>0.73739999999999994</v>
+      </c>
       <c r="P28">
-        <v>0.73739999999999994</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28">
+        <f>M28</f>
         <v>0.839113</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.21249118501542291</v>
+        <v>0.27462249587275839</v>
       </c>
       <c r="C29">
-        <v>0.979854436816334</v>
+        <v>0.91329469657295159</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>0.21249118501542291</v>
+        <v>0.27462249587275839</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>0.979854436816334</v>
-      </c>
-      <c r="H29" s="1" t="s">
+        <v>0.91329469657295159</v>
+      </c>
+      <c r="H29" s="2">
+        <f>(O29-E29)/O29*100</f>
+        <v>82.23330330152983</v>
+      </c>
+      <c r="I29" s="2">
+        <f>(P29-F29)/P29*100</f>
+        <v>71.781278251777735</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
+      <c r="L29">
         <v>1.545715</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="3"/>
+      <c r="M29">
         <v>3.2364849999999996</v>
       </c>
-      <c r="L29" s="2">
-        <f>(I29-E29)/I29*100</f>
-        <v>86.252887174192978</v>
-      </c>
-      <c r="M29" s="2">
-        <f>(J29-F29)/J29*100</f>
-        <v>69.72473418488471</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="O29">
+        <f>L29</f>
+        <v>1.545715</v>
+      </c>
       <c r="P29">
-        <v>1.545715</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R29">
+        <f>M29</f>
         <v>3.2364849999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.57810649581840112</v>
+        <v>0.432489141458124</v>
       </c>
       <c r="C30">
-        <v>1.541251789277329</v>
+        <v>1.3569106246827789</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>0.57810649581840112</v>
+        <v>0.432489141458124</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>1.541251789277329</v>
-      </c>
-      <c r="H30" s="1" t="s">
+        <v>1.3569106246827789</v>
+      </c>
+      <c r="H30" s="2">
+        <f>(O30-E30)/O30*100</f>
+        <v>67.137481880852789</v>
+      </c>
+      <c r="I30" s="2">
+        <f>(P30-F30)/P30*100</f>
+        <v>64.549920900026834</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="2"/>
+      <c r="L30">
         <v>1.3160560000000001</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="3"/>
+      <c r="M30">
         <v>3.8276659999999998</v>
       </c>
-      <c r="L30" s="2">
-        <f>(I30-E30)/I30*100</f>
-        <v>56.072804210580621</v>
-      </c>
-      <c r="M30" s="2">
-        <f>(J30-F30)/J30*100</f>
-        <v>59.733900782426453</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="O30">
+        <f>L30</f>
+        <v>1.3160560000000001</v>
+      </c>
       <c r="P30">
-        <v>1.3160560000000001</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R30">
+        <f>M30</f>
         <v>3.8276659999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31">
-        <v>1.2009997651453901</v>
+        <v>1.290142430774559</v>
       </c>
       <c r="C31">
-        <v>6.3487357777759579</v>
+        <v>8.7280750738797472</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>1.2009997651453901</v>
+        <v>1.290142430774559</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>6.3487357777759579</v>
-      </c>
-      <c r="H31" s="1" t="s">
+        <v>8.7280750738797472</v>
+      </c>
+      <c r="H31" s="2">
+        <f>(O31-E31)/O31*100</f>
+        <v>85.230668842045603</v>
+      </c>
+      <c r="I31" s="2">
+        <f>(P31-F31)/P31*100</f>
+        <v>54.428157799815033</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
+      <c r="L31">
         <v>8.7352800000000013</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="3"/>
+      <c r="M31">
         <v>19.152341999999997</v>
       </c>
-      <c r="L31" s="2">
-        <f>(I31-E31)/I31*100</f>
-        <v>86.251158919400524</v>
-      </c>
-      <c r="M31" s="2">
-        <f>(J31-F31)/J31*100</f>
-        <v>66.851386750633651</v>
-      </c>
-      <c r="O31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="O31">
+        <f>L31</f>
+        <v>8.7352800000000013</v>
+      </c>
       <c r="P31">
-        <v>8.7352800000000013</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R31">
+        <f>M31</f>
         <v>19.152341999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32">
-        <v>2.6838992977276841</v>
+        <v>2.7845786843324452</v>
       </c>
       <c r="C32">
-        <v>1.9043408728885349</v>
+        <v>3.1158601510605699</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>2.6838992977276841</v>
+        <v>2.7845786843324452</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>1.9043408728885349</v>
-      </c>
-      <c r="H32" s="1" t="s">
+        <v>3.1158601510605699</v>
+      </c>
+      <c r="H32" s="2">
+        <f>(O32-E32)/O32*100</f>
+        <v>36.23588998551763</v>
+      </c>
+      <c r="I32" s="2">
+        <f>(P32-F32)/P32*100</f>
+        <v>45.099657561177693</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
+      <c r="L32">
         <v>4.367</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="3"/>
+      <c r="M32">
         <v>5.675484</v>
       </c>
-      <c r="L32" s="2">
-        <f>(I32-E32)/I32*100</f>
-        <v>38.541348804037462</v>
-      </c>
-      <c r="M32" s="2">
-        <f>(J32-F32)/J32*100</f>
-        <v>66.446194317726295</v>
-      </c>
-      <c r="O32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="O32">
+        <f>L32</f>
+        <v>4.367</v>
+      </c>
       <c r="P32">
-        <v>4.367</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R32">
+        <f>M32</f>
         <v>5.675484</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>0.6444858423016524</v>
+        <v>11.0669888336023</v>
       </c>
       <c r="C33">
-        <v>1.085497103670374</v>
+        <v>0.74934113500449273</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>0.6444858423016524</v>
+        <v>11.0669888336023</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>1.085497103670374</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="2"/>
-        <v>2.36</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="3"/>
-        <v>3.3406710000000004</v>
-      </c>
-      <c r="L33" s="2">
-        <f>(I33-E33)/I33*100</f>
-        <v>72.691277868574048</v>
-      </c>
-      <c r="M33" s="2">
-        <f>(J33-F33)/J33*100</f>
-        <v>67.506614579215565</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>64</v>
+        <v>0.74934113500449273</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" ref="H33:H35" si="2">(O33-E33)/O33*100</f>
+        <v>28.714124842438864</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" ref="I33:I35" si="3">(P33-F33)/P33*100</f>
+        <v>3.1150511867213724</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33">
+        <v>15.524799000000002</v>
+      </c>
+      <c r="M33">
+        <v>0.77343399999999929</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33">
+        <f>L33</f>
+        <v>15.524799000000002</v>
       </c>
       <c r="P33">
-        <v>2.36</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R33">
-        <v>3.3406710000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <f>M33</f>
+        <v>0.77343399999999929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
       <c r="B34">
-        <v>0.4355682086739518</v>
+        <v>0.38861092169673972</v>
       </c>
       <c r="C34">
-        <v>2.7095486995827649</v>
+        <v>2.50510955852174</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>0.4355682086739518</v>
+        <v>0.38861092169673972</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>2.7095486995827649</v>
-      </c>
-      <c r="H34" s="1" t="s">
+        <v>2.50510955852174</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="2"/>
+        <v>78.902395010511057</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="3"/>
+        <v>70.872576893071908</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="2"/>
+      <c r="L34">
         <v>1.8419670000000001</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
+      <c r="M34">
         <v>8.6005190000000002</v>
       </c>
-      <c r="L34" s="2">
-        <f>(I34-E34)/I34*100</f>
-        <v>76.353093802768896</v>
-      </c>
-      <c r="M34" s="2">
-        <f>(J34-F34)/J34*100</f>
-        <v>68.495521030966103</v>
-      </c>
-      <c r="O34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="O34">
+        <f>L34</f>
+        <v>1.8419670000000001</v>
+      </c>
       <c r="P34">
-        <v>1.8419670000000001</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R34">
+        <f>M34</f>
         <v>8.6005190000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="11">
-        <v>12.618754773016651</v>
-      </c>
-      <c r="C35" s="11">
-        <v>0.87840702782493818</v>
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>0.54199772135423729</v>
+      </c>
+      <c r="C35">
+        <v>1.0304277280420171</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>12.618754773016651</v>
+        <v>0.54199772135423729</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>0.87840702782493818</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35">
+        <v>1.0304277280420171</v>
+      </c>
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>15.524799000000002</v>
-      </c>
-      <c r="J35">
+        <v>77.033994857871306</v>
+      </c>
+      <c r="I35" s="2">
         <f t="shared" si="3"/>
-        <v>0.77343399999999929</v>
-      </c>
-      <c r="L35" s="2">
-        <f>(I35-E35)/I35*100</f>
-        <v>18.718723681919169</v>
-      </c>
-      <c r="M35" s="2">
-        <f>(J35-F35)/J35*100</f>
-        <v>-13.572331682462755</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>66</v>
+        <v>69.155067109511322</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35">
+        <v>2.36</v>
+      </c>
+      <c r="M35">
+        <v>3.3406710000000004</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35">
+        <f>L35</f>
+        <v>2.36</v>
       </c>
       <c r="P35">
-        <v>15.524799000000002</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R35">
-        <v>0.77343399999999929</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <f>M35</f>
+        <v>3.3406710000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
@@ -2952,41 +3027,37 @@
         <v>0.22601112957677341</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="6">
+        <f>(O36-E36)/O36*100</f>
+        <v>95.497031513078795</v>
+      </c>
+      <c r="I36" s="6">
+        <f>(P36-F36)/P36*100</f>
+        <v>85.350376908959589</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="5">
-        <f>P36</f>
+      <c r="L36" s="5">
         <v>0.70916666666666661</v>
       </c>
-      <c r="J36" s="5">
-        <f>R36</f>
+      <c r="M36" s="7">
         <v>1.5427777777777778</v>
       </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="6">
-        <f>(I36-E36)/I36*100</f>
-        <v>95.497031513078795</v>
-      </c>
-      <c r="M36" s="6">
-        <f>(J36-F36)/J36*100</f>
-        <v>85.350376908959589</v>
-      </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5" t="s">
+      <c r="N36" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="O36" s="5">
+        <f>L36</f>
+        <v>0.70916666666666661</v>
+      </c>
       <c r="P36" s="5">
-        <v>0.70916666666666661</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R36" s="7">
+        <f>M36</f>
         <v>1.5427777777777778</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>72</v>
       </c>
@@ -3004,39 +3075,36 @@
         <f t="shared" si="5"/>
         <v>108.83021082631539</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2">
+        <f>(O37-E37)/O37*100</f>
+        <v>65.384126997618736</v>
+      </c>
+      <c r="I37" s="2">
+        <f>(P37-F37)/P37*100</f>
+        <v>81.439667525794263</v>
+      </c>
+      <c r="K37" t="s">
         <v>72</v>
       </c>
-      <c r="I37">
-        <f t="shared" ref="I37:I45" si="6">P37</f>
+      <c r="L37">
         <v>93.543333333333337</v>
       </c>
-      <c r="J37">
-        <f t="shared" ref="J37:J45" si="7">R37</f>
+      <c r="M37" s="9">
         <v>586.35916666666662</v>
       </c>
-      <c r="L37" s="2">
-        <f>(I37-E37)/I37*100</f>
-        <v>65.384126997618736</v>
-      </c>
-      <c r="M37" s="2">
-        <f>(J37-F37)/J37*100</f>
-        <v>81.439667525794263</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="N37" t="s">
         <v>72</v>
       </c>
+      <c r="O37">
+        <f>L37</f>
+        <v>93.543333333333337</v>
+      </c>
       <c r="P37">
-        <v>93.543333333333337</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>72</v>
-      </c>
-      <c r="R37" s="9">
+        <f>M37</f>
         <v>586.35916666666662</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>76</v>
       </c>
@@ -3054,39 +3122,36 @@
         <f t="shared" si="5"/>
         <v>1.972942682015338</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2">
+        <f>(O38-E38)/O38*100</f>
+        <v>91.760761459858614</v>
+      </c>
+      <c r="I38" s="2">
+        <f>(P38-F38)/P38*100</f>
+        <v>88.413009143438259</v>
+      </c>
+      <c r="K38" t="s">
         <v>76</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="6"/>
+      <c r="L38">
         <v>3.3833333333333333</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="7"/>
+      <c r="M38" s="9">
         <v>17.027222222222221</v>
       </c>
-      <c r="L38" s="2">
-        <f>(I38-E38)/I38*100</f>
-        <v>91.760761459858614</v>
-      </c>
-      <c r="M38" s="2">
-        <f>(J38-F38)/J38*100</f>
-        <v>88.413009143438259</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="N38" t="s">
         <v>76</v>
       </c>
+      <c r="O38">
+        <f>L38</f>
+        <v>3.3833333333333333</v>
+      </c>
       <c r="P38">
-        <v>3.3833333333333333</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>76</v>
-      </c>
-      <c r="R38" s="9">
+        <f>M38</f>
         <v>17.027222222222221</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>77</v>
       </c>
@@ -3104,39 +3169,36 @@
         <f t="shared" si="5"/>
         <v>2.3560048227539099</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2">
+        <f>(O39-E39)/O39*100</f>
+        <v>78.657396077450599</v>
+      </c>
+      <c r="I39" s="2">
+        <f>(P39-F39)/P39*100</f>
+        <v>58.968614088642454</v>
+      </c>
+      <c r="K39" t="s">
         <v>77</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="6"/>
+      <c r="L39">
         <v>1.74532</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="7"/>
+      <c r="M39" s="9">
         <v>5.7419577000000004</v>
       </c>
-      <c r="L39" s="2">
-        <f>(I39-E39)/I39*100</f>
-        <v>78.657396077450599</v>
-      </c>
-      <c r="M39" s="2">
-        <f>(J39-F39)/J39*100</f>
-        <v>58.968614088642454</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="N39" t="s">
         <v>77</v>
       </c>
+      <c r="O39">
+        <f>L39</f>
+        <v>1.74532</v>
+      </c>
       <c r="P39">
-        <v>1.74532</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>77</v>
-      </c>
-      <c r="R39" s="9">
+        <f>M39</f>
         <v>5.7419577000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>78</v>
       </c>
@@ -3154,39 +3216,36 @@
         <f t="shared" si="5"/>
         <v>38.111881809225757</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2">
+        <f>(O40-E40)/O40*100</f>
+        <v>74.114006153533879</v>
+      </c>
+      <c r="I40" s="2">
+        <f>(P40-F40)/P40*100</f>
+        <v>75.763894495015492</v>
+      </c>
+      <c r="K40" t="s">
         <v>78</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="6"/>
+      <c r="L40">
         <v>79.436111111111117</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="7"/>
+      <c r="M40" s="9">
         <v>157.2525</v>
       </c>
-      <c r="L40" s="2">
-        <f>(I40-E40)/I40*100</f>
-        <v>74.114006153533879</v>
-      </c>
-      <c r="M40" s="2">
-        <f>(J40-F40)/J40*100</f>
-        <v>75.763894495015492</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="N40" t="s">
         <v>78</v>
       </c>
+      <c r="O40">
+        <f>L40</f>
+        <v>79.436111111111117</v>
+      </c>
       <c r="P40">
-        <v>79.436111111111117</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>78</v>
-      </c>
-      <c r="R40" s="9">
+        <f>M40</f>
         <v>157.2525</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>79</v>
       </c>
@@ -3204,39 +3263,36 @@
         <f t="shared" si="5"/>
         <v>1.3102435200561791</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2">
+        <f>(O41-E41)/O41*100</f>
+        <v>96.632140758796908</v>
+      </c>
+      <c r="I41" s="2">
+        <f>(P41-F41)/P41*100</f>
+        <v>96.455528248906859</v>
+      </c>
+      <c r="K41" t="s">
         <v>79</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="6"/>
+      <c r="L41">
         <v>7.5477777777777781</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="7"/>
+      <c r="M41" s="9">
         <v>36.965833333333336</v>
       </c>
-      <c r="L41" s="2">
-        <f>(I41-E41)/I41*100</f>
-        <v>96.632140758796908</v>
-      </c>
-      <c r="M41" s="2">
-        <f>(J41-F41)/J41*100</f>
-        <v>96.455528248906859</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="N41" t="s">
         <v>79</v>
       </c>
+      <c r="O41">
+        <f>L41</f>
+        <v>7.5477777777777781</v>
+      </c>
       <c r="P41">
-        <v>7.5477777777777781</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>79</v>
-      </c>
-      <c r="R41" s="9">
+        <f>M41</f>
         <v>36.965833333333336</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>80</v>
       </c>
@@ -3254,39 +3310,36 @@
         <f t="shared" si="5"/>
         <v>29.892681064176571</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2">
+        <f>(O42-E42)/O42*100</f>
+        <v>79.131966946130916</v>
+      </c>
+      <c r="I42" s="2">
+        <f>(P42-F42)/P42*100</f>
+        <v>49.437515878160035</v>
+      </c>
+      <c r="K42" t="s">
         <v>80</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="6"/>
+      <c r="L42">
         <v>28.193888888888889</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="7"/>
+      <c r="M42" s="9">
         <v>59.12027777777778</v>
       </c>
-      <c r="L42" s="2">
-        <f>(I42-E42)/I42*100</f>
-        <v>79.131966946130916</v>
-      </c>
-      <c r="M42" s="2">
-        <f>(J42-F42)/J42*100</f>
-        <v>49.437515878160035</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="N42" t="s">
         <v>80</v>
       </c>
+      <c r="O42">
+        <f>L42</f>
+        <v>28.193888888888889</v>
+      </c>
       <c r="P42">
-        <v>28.193888888888889</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>80</v>
-      </c>
-      <c r="R42" s="9">
+        <f>M42</f>
         <v>59.12027777777778</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>81</v>
       </c>
@@ -3304,39 +3357,36 @@
         <f t="shared" si="5"/>
         <v>1.5225937226590489</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2">
+        <f>(O43-E43)/O43*100</f>
+        <v>96.806761908705084</v>
+      </c>
+      <c r="I43" s="2">
+        <f>(P43-F43)/P43*100</f>
+        <v>97.532285229931048</v>
+      </c>
+      <c r="K43" t="s">
         <v>81</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="6"/>
+      <c r="L43">
         <v>19.870833333333334</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="7"/>
+      <c r="M43" s="9">
         <v>61.700555555555553</v>
       </c>
-      <c r="L43" s="2">
-        <f>(I43-E43)/I43*100</f>
-        <v>96.806761908705084</v>
-      </c>
-      <c r="M43" s="2">
-        <f>(J43-F43)/J43*100</f>
-        <v>97.532285229931048</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="N43" t="s">
         <v>81</v>
       </c>
+      <c r="O43">
+        <f>L43</f>
+        <v>19.870833333333334</v>
+      </c>
       <c r="P43">
-        <v>19.870833333333334</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>81</v>
-      </c>
-      <c r="R43" s="9">
+        <f>M43</f>
         <v>61.700555555555553</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>82</v>
       </c>
@@ -3354,39 +3404,36 @@
         <f t="shared" si="5"/>
         <v>62.102690586897737</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2">
+        <f>(O44-E44)/O44*100</f>
+        <v>83.150873052886055</v>
+      </c>
+      <c r="I44" s="2">
+        <f>(P44-F44)/P44*100</f>
+        <v>79.619492267590431</v>
+      </c>
+      <c r="K44" t="s">
         <v>82</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="6"/>
+      <c r="L44">
         <v>86.103888888888889</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="7"/>
+      <c r="M44" s="9">
         <v>304.7161111111111</v>
       </c>
-      <c r="L44" s="2">
-        <f>(I44-E44)/I44*100</f>
-        <v>83.150873052886055</v>
-      </c>
-      <c r="M44" s="2">
-        <f>(J44-F44)/J44*100</f>
-        <v>79.619492267590431</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="N44" t="s">
         <v>82</v>
       </c>
+      <c r="O44">
+        <f>L44</f>
+        <v>86.103888888888889</v>
+      </c>
       <c r="P44">
-        <v>86.103888888888889</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>82</v>
-      </c>
-      <c r="R44" s="9">
+        <f>M44</f>
         <v>304.7161111111111</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>83</v>
       </c>
@@ -3406,616 +3453,612 @@
         <v>54.822841766908773</v>
       </c>
       <c r="G45" s="11"/>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="12">
+        <f>(O45-E45)/O45*100</f>
+        <v>82.445886804037343</v>
+      </c>
+      <c r="I45" s="12">
+        <f>(P45-F45)/P45*100</f>
+        <v>79.7028656563254</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="11">
-        <f t="shared" si="6"/>
+      <c r="L45" s="11">
         <v>113.595</v>
       </c>
-      <c r="J45" s="11">
-        <f t="shared" si="7"/>
+      <c r="M45" s="13">
         <v>270.10138888888889</v>
       </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="12">
-        <f>(I45-E45)/I45*100</f>
-        <v>82.445886804037343</v>
-      </c>
-      <c r="M45" s="12">
-        <f>(J45-F45)/J45*100</f>
-        <v>79.7028656563254</v>
-      </c>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11" t="s">
+      <c r="N45" s="11" t="s">
         <v>83</v>
       </c>
+      <c r="O45" s="11">
+        <f>L45</f>
+        <v>113.595</v>
+      </c>
       <c r="P45" s="11">
-        <v>113.595</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="R45" s="13">
+        <f>M45</f>
         <v>270.10138888888889</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>117</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>117</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>84</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>118</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>118</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>85</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>85</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>119</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>119</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>120</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>120</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>86</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
         <v>86</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
         <v>121</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>122</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
         <v>122</v>
       </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>87</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>87</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>88</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>88</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>89</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>89</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>90</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
         <v>90</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>91</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>91</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>123</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>123</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>92</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
         <v>92</v>
       </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>93</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
         <v>93</v>
       </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
         <v>94</v>
       </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>95</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>95</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>96</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>96</v>
       </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>97</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>97</v>
       </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>98</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
         <v>98</v>
       </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>99</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>99</v>
       </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>100</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>100</v>
       </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>101</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>101</v>
       </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>102</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
         <v>102</v>
       </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>103</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>103</v>
       </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>104</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
         <v>104</v>
       </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>124</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
         <v>124</v>
       </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>105</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
         <v>105</v>
       </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>106</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>106</v>
       </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>107</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
         <v>107</v>
       </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>108</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
         <v>108</v>
       </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>109</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>109</v>
       </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>110</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
         <v>110</v>
       </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>111</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
         <v>111</v>
       </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>112</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
         <v>112</v>
       </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>113</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
         <v>113</v>
       </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>114</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
         <v>114</v>
       </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>115</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
         <v>115</v>
       </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>116</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
         <v>116</v>
       </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:M45">
+  <conditionalFormatting sqref="H2:I45">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0</formula>
       <formula>40</formula>
